--- a/data/2026-01-17_SG-SG_Data.xlsx
+++ b/data/2026-01-17_SG-SG_Data.xlsx
@@ -3952,7 +3952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3976,6 +3976,11 @@
           <t>BB_earnings</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3989,6 +3994,11 @@
       <c r="C2" t="n">
         <v>240</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4002,6 +4012,11 @@
       <c r="C3" t="n">
         <v>240</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4015,6 +4030,11 @@
       <c r="C4" t="n">
         <v>26.67</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4028,6 +4048,11 @@
       <c r="C5" t="n">
         <v>26.67</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4041,6 +4066,11 @@
       <c r="C6" t="n">
         <v>26.67</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4054,6 +4084,11 @@
       <c r="C7" t="n">
         <v>26.67</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4067,6 +4102,11 @@
       <c r="C8" t="n">
         <v>26.67</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4080,6 +4120,11 @@
       <c r="C9" t="n">
         <v>26.67</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4093,6 +4138,11 @@
       <c r="C10" t="n">
         <v>26.67</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4106,6 +4156,11 @@
       <c r="C11" t="n">
         <v>26.67</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4119,6 +4174,11 @@
       <c r="C12" t="n">
         <v>26.67</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4132,6 +4192,11 @@
       <c r="C13" t="n">
         <v>26.67</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4145,6 +4210,11 @@
       <c r="C14" t="n">
         <v>26.67</v>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4157,6 +4227,11 @@
       </c>
       <c r="C15" t="n">
         <v>26.67</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4189,6 +4264,11 @@
           <t>Nskins_earnings</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4199,6 +4279,11 @@
       <c r="B2" t="n">
         <v>42.5</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4209,6 +4294,11 @@
       <c r="B3" t="n">
         <v>42.5</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4219,6 +4309,11 @@
       <c r="B4" t="n">
         <v>42.5</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4229,6 +4324,11 @@
       <c r="B5" t="n">
         <v>42.5</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4239,6 +4339,11 @@
       <c r="B6" t="n">
         <v>42.5</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4249,6 +4354,11 @@
       <c r="B7" t="n">
         <v>42.5</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4259,6 +4369,11 @@
       <c r="B8" t="n">
         <v>42.5</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4268,6 +4383,11 @@
       </c>
       <c r="B9" t="n">
         <v>42.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,6 +4420,11 @@
           <t>Gskins_earnings</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4310,6 +4435,11 @@
       <c r="B2" t="n">
         <v>68.56999999999999</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4320,6 +4450,11 @@
       <c r="B3" t="n">
         <v>34.29</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4330,6 +4465,11 @@
       <c r="B4" t="n">
         <v>34.29</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4340,6 +4480,11 @@
       <c r="B5" t="n">
         <v>34.29</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4350,6 +4495,11 @@
       <c r="B6" t="n">
         <v>34.29</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4359,6 +4509,11 @@
       </c>
       <c r="B7" t="n">
         <v>34.29</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4372,7 +4527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4396,6 +4551,11 @@
           <t>net_medal_earnings</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4411,6 +4571,11 @@
       <c r="C2" t="n">
         <v>166.5</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4426,6 +4591,11 @@
       <c r="C3" t="n">
         <v>74</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4441,6 +4611,11 @@
       <c r="C4" t="n">
         <v>74</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4456,6 +4631,11 @@
       <c r="C5" t="n">
         <v>37</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4471,6 +4651,11 @@
       <c r="C6" t="n">
         <v>2.64</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4486,6 +4671,11 @@
       <c r="C7" t="n">
         <v>2.64</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4501,6 +4691,11 @@
       <c r="C8" t="n">
         <v>2.64</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4516,6 +4711,11 @@
       <c r="C9" t="n">
         <v>2.64</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4531,6 +4731,11 @@
       <c r="C10" t="n">
         <v>2.64</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4546,6 +4751,11 @@
       <c r="C11" t="n">
         <v>2.64</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4560,6 +4770,11 @@
       </c>
       <c r="C12" t="n">
         <v>2.64</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
       </c>
     </row>
   </sheetData>
